--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_21.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>123146.4910540741</v>
+        <v>99492.4425202721</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.578713059</v>
+        <v>8191592.57871306</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>260.5326744831254</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>21.80312970792117</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -835,10 +835,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>382.8507525602069</v>
+        <v>376.184863643924</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>98.11554172172842</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>257.7679198008236</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646389</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>54.47555601903397</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,13 +1370,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>315.0228819490326</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.9246573280012</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1610,16 +1610,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228949</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>323.9918595228949</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4.553858340638264</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.45256041645978</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>26.94389492651026</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>26.64360395382558</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2290,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.024624796403</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>26.94389492651069</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>121.1156257058473</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>47.14167849255889</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2761,19 +2761,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,10 +2801,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>384.7320609205416</v>
+        <v>408.8742649987725</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>94.96473028786649</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>307.186118632148</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>129.0246247964033</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3238,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>173.9313784350742</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982965</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.18624263408637</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>30.05143818257738</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>90.02575748609766</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>339.0399185806811</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,16 +3670,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.97699675700441</v>
       </c>
       <c r="G40" t="n">
-        <v>81.25819606329408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>269.5134569480831</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>155.4526127311943</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4138,16 +4138,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>127.9907220675519</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>189.5968436493435</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1584.923258067584</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="C2" t="n">
-        <v>1215.960741127172</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="D2" t="n">
-        <v>857.6950425204218</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="E2" t="n">
-        <v>471.9067899221776</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.523098131706</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W2" t="n">
-        <v>1971.523098131706</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X2" t="n">
-        <v>1971.523098131706</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y2" t="n">
-        <v>1971.523098131706</v>
+        <v>2013.317548404537</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
         <v>665.1105362747051</v>
@@ -4404,52 +4404,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4471,22 +4471,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1209.912517095719</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1209.912517095719</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D5" t="n">
-        <v>851.6468184889688</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E5" t="n">
-        <v>851.6468184889688</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F5" t="n">
-        <v>440.6609136993613</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1583.378275356799</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.912517095719</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1209.912517095719</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2598.042483218497</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2344.280697856589</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2344.280697856589</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.280697856589</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.280697856589</v>
+        <v>1402.111937967022</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1011.97260599121</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
         <v>665.1105362747051</v>
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4926,7 +4926,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036446</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036446</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>882.8926947117852</v>
+        <v>2255.520561484594</v>
       </c>
       <c r="C11" t="n">
-        <v>882.8926947117852</v>
+        <v>1886.558044544182</v>
       </c>
       <c r="D11" t="n">
-        <v>882.8926947117852</v>
+        <v>1528.292345937431</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2597.225194727312</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2343.463409365404</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V11" t="n">
-        <v>2012.400522021833</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W11" t="n">
-        <v>1659.631866751719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X11" t="n">
-        <v>1659.631866751719</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y11" t="n">
-        <v>1269.492534775907</v>
+        <v>2642.120401548716</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5121,40 +5121,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5230,19 +5230,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>149.5382038240418</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785527</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889451</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
         <v>169.7108380533141</v>
@@ -5282,7 +5282,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757142</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.54400078133</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5455,31 +5455,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1546.944160717209</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.981643776797</v>
+        <v>1273.280804219765</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1933911785527</v>
+        <v>887.4925516215208</v>
       </c>
       <c r="F17" t="n">
-        <v>381.2074863889451</v>
+        <v>476.5066468319132</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036444</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036444</v>
+        <v>58.54283873010007</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X17" t="n">
-        <v>2323.683332757142</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y17" t="n">
-        <v>1933.54400078133</v>
+        <v>1659.880644283887</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5695,28 +5695,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>678.176902977687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>678.176902977687</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>450.8687156462887</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V19" t="n">
-        <v>450.8687156462887</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1194.175505447094</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C20" t="n">
-        <v>825.2129885066827</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D20" t="n">
-        <v>466.9472898999322</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E20" t="n">
-        <v>81.15903730168793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>81.15903730168793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>81.15903730168793</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533141</v>
@@ -5756,7 +5756,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5774,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511216</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
         <v>2206.839139259579</v>
@@ -5938,22 +5938,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.821187183472</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>2277.64757683804</v>
       </c>
       <c r="V22" t="n">
-        <v>2442.464602812335</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W22" t="n">
-        <v>2153.047432775375</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632152</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D23" t="n">
-        <v>466.9472898999326</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E23" t="n">
-        <v>81.15903730168839</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>81.15903730168839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>81.15903730168839</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
@@ -5993,7 +5993,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6011,28 +6011,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>396.3638799638587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>248.4507863814656</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>101.5608388835552</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6178,19 +6178,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755378</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,10 +6224,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
         <v>881.2824271224073</v>
@@ -6266,10 +6266,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.5451948195</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6409,16 +6409,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
         <v>53.94298182036445</v>
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.775345511217</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C29" t="n">
-        <v>1211.812828570805</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D29" t="n">
-        <v>853.5471299640544</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="E29" t="n">
-        <v>853.5471299640544</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="F29" t="n">
-        <v>442.5612251744469</v>
+        <v>466.9472898999326</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6543,13 +6543,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517453</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6674,37 +6674,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>903.5661947296837</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C32" t="n">
-        <v>534.603677789272</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D32" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6728,22 +6728,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2601.225121030478</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2347.46333566857</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2016.400448324999</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1663.631793054885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1290.166034793805</v>
+        <v>2386.860082298881</v>
       </c>
       <c r="Y32" t="n">
-        <v>1290.166034793805</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036422</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036422</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614627</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571346</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915165</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>184.2708856551153</v>
+        <v>2339.812365142453</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>2170.876182214546</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>2521.460829972693</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>2521.460829972693</v>
       </c>
       <c r="V34" t="n">
-        <v>184.2708856551153</v>
+        <v>2521.460829972693</v>
       </c>
       <c r="W34" t="n">
-        <v>184.2708856551153</v>
+        <v>2521.460829972693</v>
       </c>
       <c r="X34" t="n">
-        <v>184.2708856551153</v>
+        <v>2521.460829972693</v>
       </c>
       <c r="Y34" t="n">
-        <v>184.2708856551153</v>
+        <v>2521.460829972693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1637.643464250441</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C35" t="n">
         <v>1268.68094731003</v>
@@ -6926,61 +6926,61 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2694.940765125206</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2694.940765125206</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>2363.877877781635</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W35" t="n">
-        <v>2011.109222511521</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X35" t="n">
-        <v>1637.643464250441</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y35" t="n">
-        <v>1637.643464250441</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="C37" t="n">
-        <v>2317.040372100974</v>
+        <v>2380.0662495245</v>
       </c>
       <c r="D37" t="n">
-        <v>2317.040372100974</v>
+        <v>2380.0662495245</v>
       </c>
       <c r="E37" t="n">
-        <v>2317.040372100974</v>
+        <v>2380.0662495245</v>
       </c>
       <c r="F37" t="n">
-        <v>2317.040372100974</v>
+        <v>2380.0662495245</v>
       </c>
       <c r="G37" t="n">
-        <v>2317.040372100974</v>
+        <v>2211.066449262833</v>
       </c>
       <c r="H37" t="n">
-        <v>2159.291999533505</v>
+        <v>2053.318076695363</v>
       </c>
       <c r="I37" t="n">
         <v>2022.963088632153</v>
@@ -7099,46 +7099,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="T37" t="n">
-        <v>2606.213982446407</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="U37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="V37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="W37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="X37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
       <c r="Y37" t="n">
-        <v>2317.040372100974</v>
+        <v>2549.002432452407</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755378</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9429818203638</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533135</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7211,13 +7211,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2354.684526795312</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7248,16 +7248,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7272,22 +7272,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="C40" t="n">
-        <v>728.1289842064342</v>
+        <v>2528.212908090316</v>
       </c>
       <c r="D40" t="n">
-        <v>578.0123447940985</v>
+        <v>2378.09626867798</v>
       </c>
       <c r="E40" t="n">
-        <v>430.0992512117053</v>
+        <v>2230.183175095587</v>
       </c>
       <c r="F40" t="n">
-        <v>430.0992512117053</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="G40" t="n">
-        <v>348.0202652891861</v>
+        <v>2180.711461199623</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1491.915471247702</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1122.95295430729</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D41" t="n">
-        <v>1122.95295430729</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E41" t="n">
-        <v>737.1647017090459</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F41" t="n">
-        <v>326.1787969194383</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
         <v>881.2824271224076</v>
@@ -7421,40 +7421,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
-        <v>2268.654643287635</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1878.515311311824</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T43" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U43" t="n">
-        <v>308.6274700262513</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036444</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036444</v>
+        <v>210.9658229629849</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7664,34 +7664,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>500.139433308417</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>500.139433308417</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V46" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W46" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X46" t="n">
-        <v>2214.475051914318</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>500.139433308417</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>121.3976955891364</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22592,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>305.9491287622137</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22781,22 +22781,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>30.93341746058809</v>
+        <v>37.59930637687103</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22948,19 +22948,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,19 +22984,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,22 +23066,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>118.3327786359294</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>91.47304891658939</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,25 +23221,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>231.8063182229438</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>66.9074881232292</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>117.5236630296566</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23470,16 +23470,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>131.0703856053966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>27.53450764830103</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>89.79231049790008</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23555,7 +23555,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23707,13 +23707,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>147.377457904223</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>97.21263156369807</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23984,7 +23984,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>296.9788778378469</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>189.8047164038322</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
@@ -24178,19 +24178,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.0104806616813</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>296.9788778378464</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>248.6154749726217</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24361,31 +24361,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>120.168123766492</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24418,16 +24418,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24619,10 +24619,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,25 +24643,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>29.0521091002534</v>
+        <v>4.909905022022485</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24856,10 +24856,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24889,19 +24889,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,22 +24920,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>121.4835900697913</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>62.54498204632108</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,16 +25072,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>38.22219630222452</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25126,13 +25126,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>51.10372702301004</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>144.2707130727111</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>214.2620777235714</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,16 +25324,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.9141836097608</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>135.0093479719866</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,7 +25394,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,10 +25451,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>10.20105013673191</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,19 +25558,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>96.44405126592683</v>
       </c>
       <c r="G40" t="n">
-        <v>86.05160619575683</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>144.2707130727119</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25804,10 +25804,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>21.87414536972216</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>63.13204062090054</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25928,7 +25928,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,25 +26026,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>20.62475095066048</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26080,7 +26080,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.98780970275126</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="E2" t="n">
+        <v>303610.2405165457</v>
+      </c>
+      <c r="F2" t="n">
         <v>303610.2405165455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303610.2405165456</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165454</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303610.2405165454</v>
       </c>
       <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="H2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
         <v>303610.2405165455</v>
@@ -26341,10 +26341,10 @@
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="M2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165456</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26353,7 +26353,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165454</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26448,7 +26448,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
     </row>
     <row r="6">
@@ -26525,40 +26525,40 @@
         <v>220238.0539540763</v>
       </c>
       <c r="D6" t="n">
-        <v>220238.0539540764</v>
+        <v>220238.0539540761</v>
       </c>
       <c r="E6" t="n">
+        <v>253865.6539540766</v>
+      </c>
+      <c r="F6" t="n">
         <v>253865.6539540763</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>253865.6539540762</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>253865.6539540763</v>
-      </c>
-      <c r="H6" t="n">
-        <v>253865.6539540761</v>
       </c>
       <c r="I6" t="n">
         <v>253865.6539540763</v>
       </c>
       <c r="J6" t="n">
-        <v>77442.43476148325</v>
+        <v>77442.43476148328</v>
       </c>
       <c r="K6" t="n">
+        <v>253865.6539540763</v>
+      </c>
+      <c r="L6" t="n">
+        <v>253865.6539540763</v>
+      </c>
+      <c r="M6" t="n">
+        <v>253865.6539540764</v>
+      </c>
+      <c r="N6" t="n">
         <v>253865.6539540762</v>
       </c>
-      <c r="L6" t="n">
-        <v>253865.6539540762</v>
-      </c>
-      <c r="M6" t="n">
-        <v>253865.6539540762</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>253865.6539540763</v>
-      </c>
-      <c r="O6" t="n">
-        <v>253865.6539540762</v>
       </c>
       <c r="P6" t="n">
         <v>253865.6539540762</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>139.432625713487</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31841,7 +31841,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653282</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32011,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32169,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32184,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,19 +32224,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L17" t="n">
         <v>239.6413398630669</v>
@@ -32248,22 +32248,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,16 +32303,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,13 +32406,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32421,7 +32421,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32570,19 +32570,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32804,22 +32804,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32950,7 +32950,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M26" t="n">
         <v>266.6471645405367</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,19 +33646,19 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
         <v>239.6413398630669</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653259</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,19 +33755,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,22 +34199,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>323.920986939094</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,7 +35738,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L17" t="n">
         <v>421.5361394435301</v>
@@ -35896,10 +35896,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35975,13 +35975,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36206,19 +36206,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060965</v>
@@ -36607,10 +36607,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36686,13 +36686,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36920,10 +36920,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,13 +37081,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37157,10 +37157,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
         <v>421.5361394435301</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,13 +37397,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37555,10 +37555,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37634,7 +37634,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,10 +37792,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38108,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1359754.419263765</v>
+        <v>1388744.690012905</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99492.4425202721</v>
+        <v>120897.4619406345</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>8859705.390340982</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8191592.57871306</v>
+        <v>8260328.549612712</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>260.5326744831254</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>197.9240804051659</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.445065564638</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>99.3450804962429</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>44.07056651555945</v>
       </c>
       <c r="G5" t="n">
-        <v>376.184863643924</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>99.72476023394486</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>257.7679198008236</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,7 +1226,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H9" t="n">
         <v>104.3883541553076</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1373,19 +1375,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>315.0228819490326</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.72683757586869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1591,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>29.16584928708737</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>354.3958624239608</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1652,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>81.12200652863734</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>389.0396295043333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.553858340638264</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,16 +2086,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>26.64360395382558</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228957</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>121.1156257058473</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>62.95369569505507</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>355.546756558266</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>26.94389492651113</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>408.8742649987725</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806816</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -3001,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>190.2713935802969</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.998219257060982</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>307.186118632148</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>49.75696784121528</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>173.9313784350742</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>190.8725003802219</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3311,25 +3313,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>30.05143818257738</v>
+        <v>16.88986550434897</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>48.97699675700441</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>118.9283458032787</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3740,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228957</v>
+        <v>334.58170967322</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>155.4526127311943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,16 +3985,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>305.0940449083083</v>
       </c>
     </row>
     <row r="45">
@@ -4068,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>127.9907220675519</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.4431638215611</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.717708340415</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.717708340415</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>1626.717708340415</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4325,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2047.384933294377</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674651</v>
+        <v>1716.322045950807</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404537</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="X2" t="n">
-        <v>2013.317548404537</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>2013.317548404537</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>336.276983312403</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>336.276983312403</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>336.276983312403</v>
       </c>
       <c r="H4" t="n">
         <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.276983312403</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>516.422513675268</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>516.422513675268</v>
       </c>
       <c r="E5" t="n">
-        <v>433.9276925718028</v>
+        <v>516.422513675268</v>
       </c>
       <c r="F5" t="n">
-        <v>433.9276925718028</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,19 +4658,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.59950625323012</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>625.3727659270879</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>625.3727659270879</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>625.3727659270879</v>
+        <v>951.4492202526051</v>
       </c>
       <c r="E8" t="n">
-        <v>625.3727659270879</v>
+        <v>565.6609676543608</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>154.6750628647532</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224073</v>
@@ -4841,13 +4843,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1402.111937967022</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1402.111937967022</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1011.97260599121</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4893,31 +4895,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2255.520561484594</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.558044544182</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D11" t="n">
-        <v>1528.292345937431</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E11" t="n">
-        <v>1210.087414675782</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F11" t="n">
-        <v>799.1015098861748</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G11" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
         <v>53.94298182036445</v>
@@ -5039,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5063,28 +5065,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.120401548716</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y11" t="n">
-        <v>2642.120401548716</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5123,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
         <v>2188.831293537797</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>667.7988452409105</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="C13" t="n">
-        <v>498.8626623130036</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="D13" t="n">
-        <v>348.7460229006679</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E13" t="n">
-        <v>200.8329293182748</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5203,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.6685303810934</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>698.6685303810934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1139.146815977588</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C14" t="n">
-        <v>770.1842990371763</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D14" t="n">
-        <v>411.9186004304258</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W14" t="n">
-        <v>2289.351746278601</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X14" t="n">
-        <v>1915.885988017521</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y14" t="n">
-        <v>1525.74665604171</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="15">
@@ -5358,7 +5360,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
         <v>670.8219208598713</v>
@@ -5461,16 +5463,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>184.2708856551153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
         <v>53.94298182036445</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1273.280804219765</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C17" t="n">
-        <v>1273.280804219765</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D17" t="n">
-        <v>1273.280804219765</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E17" t="n">
-        <v>887.4925516215208</v>
+        <v>857.8982093416219</v>
       </c>
       <c r="F17" t="n">
-        <v>476.5066468319132</v>
+        <v>446.9123045520143</v>
       </c>
       <c r="G17" t="n">
-        <v>58.54283873010007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>58.54283873010007</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5516,16 +5518,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5537,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2423.485734520778</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>2050.019976259699</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y17" t="n">
-        <v>1659.880644283887</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5698,19 +5700,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
         <v>53.94298182036445</v>
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>781.1711973675267</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C20" t="n">
-        <v>412.2086804271149</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D20" t="n">
-        <v>53.94298182036445</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E20" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F20" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036445</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.207670282225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2284.144782938654</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>1931.37612766854</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>1557.91036940746</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y20" t="n">
-        <v>1167.771037431648</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2566.821187183472</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2277.64757683804</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1363.553390680693</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C23" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D23" t="n">
-        <v>1363.553390680693</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="E23" t="n">
-        <v>1363.553390680693</v>
+        <v>792.1933911785536</v>
       </c>
       <c r="F23" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889461</v>
       </c>
       <c r="G23" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1363.553390680693</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1363.553390680693</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>117.5325734315312</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6154,43 +6156,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="U25" t="n">
-        <v>536.6170209242687</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="V25" t="n">
-        <v>281.9325327183818</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="W25" t="n">
-        <v>281.9325327183818</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931988</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1937.083492693021</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C26" t="n">
-        <v>1568.120975752609</v>
+        <v>825.2129885066836</v>
       </c>
       <c r="D26" t="n">
-        <v>1209.855277145859</v>
+        <v>466.9472898999331</v>
       </c>
       <c r="E26" t="n">
-        <v>824.0670245476144</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="F26" t="n">
-        <v>413.0811197580069</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>81.15903730168884</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757143</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1194.175505447095</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C29" t="n">
-        <v>825.2129885066831</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>466.9472898999326</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E29" t="n">
-        <v>466.9472898999326</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>466.9472898999326</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K30" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W31" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1610.120910258947</v>
+        <v>1192.157102157134</v>
       </c>
       <c r="C32" t="n">
-        <v>1241.158393318536</v>
+        <v>823.1945852167225</v>
       </c>
       <c r="D32" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6701,10 +6703,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6731,19 +6733,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>2695.130687728262</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>2342.362032458147</v>
       </c>
       <c r="X32" t="n">
-        <v>2386.860082298881</v>
+        <v>1968.896274197068</v>
       </c>
       <c r="Y32" t="n">
-        <v>1996.720750323069</v>
+        <v>1578.756942221256</v>
       </c>
     </row>
     <row r="33">
@@ -6753,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6832,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2339.812365142453</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2170.876182214546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.876182214546</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
         <v>2022.963088632153</v>
@@ -6880,28 +6882,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018222</v>
+        <v>2646.889527542247</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018222</v>
+        <v>2432.60110436041</v>
       </c>
       <c r="T34" t="n">
-        <v>2521.460829972693</v>
+        <v>2432.60110436041</v>
       </c>
       <c r="U34" t="n">
-        <v>2521.460829972693</v>
+        <v>2432.60110436041</v>
       </c>
       <c r="V34" t="n">
-        <v>2521.460829972693</v>
+        <v>2432.60110436041</v>
       </c>
       <c r="W34" t="n">
-        <v>2521.460829972693</v>
+        <v>2432.60110436041</v>
       </c>
       <c r="X34" t="n">
-        <v>2521.460829972693</v>
+        <v>2204.611553462393</v>
       </c>
       <c r="Y34" t="n">
-        <v>2521.460829972693</v>
+        <v>2204.611553462393</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1491.915471247703</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C35" t="n">
-        <v>1268.68094731003</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>984.9241120085367</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>573.9382072189292</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W35" t="n">
-        <v>2642.120401548716</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.654643287636</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.515311311824</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>368.8844281164668</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>773.5003462121387</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2549.002432452407</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="C37" t="n">
-        <v>2380.0662495245</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="D37" t="n">
-        <v>2380.0662495245</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="E37" t="n">
-        <v>2380.0662495245</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="F37" t="n">
-        <v>2380.0662495245</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="G37" t="n">
-        <v>2211.066449262833</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="H37" t="n">
-        <v>2053.318076695363</v>
+        <v>71.00345202677755</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>2549.002432452407</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>2549.002432452407</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>2549.002432452407</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X37" t="n">
-        <v>2549.002432452407</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y37" t="n">
-        <v>2549.002432452407</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="38">
@@ -7175,10 +7177,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7251,31 +7253,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C40" t="n">
-        <v>2528.212908090316</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D40" t="n">
-        <v>2378.09626867798</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E40" t="n">
-        <v>2230.183175095587</v>
+        <v>500.820796875036</v>
       </c>
       <c r="F40" t="n">
-        <v>2180.711461199623</v>
+        <v>500.820796875036</v>
       </c>
       <c r="G40" t="n">
-        <v>2180.711461199623</v>
+        <v>331.8209966133684</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>174.0726240458985</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y40" t="n">
-        <v>2697.149091018222</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="41">
@@ -7385,70 +7387,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776798</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776798</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785536</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889461</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
         <v>2323.683332757143</v>
@@ -7464,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610023</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610023</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>210.9658229629849</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1577.945354755379</v>
+        <v>1947.516812454453</v>
       </c>
       <c r="C44" t="n">
-        <v>1208.982837814967</v>
+        <v>1578.554295514042</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O44" t="n">
-        <v>2238.843319642689</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018223</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018223</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018223</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X44" t="n">
-        <v>2354.684526795312</v>
+        <v>2642.29245545626</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.5451948195</v>
+        <v>2334.116652518575</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>199.3493551844579</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>541.1117659683625</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1181.657115435466</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1854.862807688248</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2404.29881644097</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2586.942294054321</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U45" t="n">
-        <v>2061.714576167582</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237151</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.139433308417</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C46" t="n">
-        <v>500.139433308417</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D46" t="n">
-        <v>370.8558756644252</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E46" t="n">
-        <v>222.942782082032</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F46" t="n">
-        <v>222.942782082032</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866326</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>866.4861918383683</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>704.4223899984077</v>
       </c>
       <c r="X46" t="n">
-        <v>500.139433308417</v>
+        <v>476.4328391003903</v>
       </c>
       <c r="Y46" t="n">
-        <v>500.139433308417</v>
+        <v>255.6402599568602</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8781,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9006,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9252,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>121.3976955891364</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>53.30008710312342</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22711,16 +22713,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>56.82580834555225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -22787,16 +22789,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>362.805479226152</v>
       </c>
       <c r="G5" t="n">
-        <v>37.59930637687103</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -22838,13 +22840,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>52.20655601091639</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>91.47304891658939</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23185,22 +23187,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,13 +23235,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23261,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>66.9074881232292</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,31 +23415,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.1051426060686</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23479,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>196.5438061019498</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>27.53450764830103</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23540,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>135.3263138290204</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23671,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>157.4983735401877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>24.74454051646165</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>147.377457904223</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
         <v>251.2241675082893</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23938,22 +23940,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882477</v>
       </c>
       <c r="T19" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>189.8047164038322</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24178,22 +24180,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>96.0104806616813</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>89.79231049789928</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>248.6154749726217</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>93.21719314674007</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24412,22 +24414,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>58.23741346252899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>296.978877837846</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24649,19 +24651,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787177</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.909905022022485</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.69118209778748</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24889,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168084</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24929,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24971,16 +24973,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>249.2259482512283</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>62.54498204632108</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25120,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>96.90822413894259</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>51.10372702301004</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25154,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>144.2707130727111</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>222.9116696405731</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25199,25 +25201,25 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>104.9141836097608</v>
+        <v>118.0757562879893</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>96.44405126592683</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>16.03727598905951</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25600,7 +25602,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25628,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>89.79231049789928</v>
+        <v>79.20246034757503</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25837,22 +25839,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>63.13204062090054</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25871,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>81.14389374774532</v>
       </c>
     </row>
     <row r="45">
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>20.62475095066048</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>62.92974089919764</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386063</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>708423.8945386064</v>
+        <v>708423.8945386065</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>708423.8945386063</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>708423.8945386065</v>
+        <v>708423.8945386064</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>708423.8945386065</v>
+        <v>827452.3564486428</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="D2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>303610.2405165453</v>
-      </c>
-      <c r="E2" t="n">
-        <v>303610.2405165457</v>
-      </c>
-      <c r="F2" t="n">
-        <v>303610.2405165455</v>
       </c>
       <c r="G2" t="n">
         <v>303610.2405165454</v>
@@ -26332,19 +26334,19 @@
         <v>303610.2405165454</v>
       </c>
       <c r="I2" t="n">
-        <v>303610.2405165455</v>
+        <v>303610.2405165454</v>
       </c>
       <c r="J2" t="n">
-        <v>303610.2405165454</v>
+        <v>303610.2405165453</v>
       </c>
       <c r="K2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="L2" t="n">
+        <v>303610.2405165453</v>
+      </c>
+      <c r="M2" t="n">
         <v>303610.2405165455</v>
-      </c>
-      <c r="M2" t="n">
-        <v>303610.2405165456</v>
       </c>
       <c r="N2" t="n">
         <v>303610.2405165454</v>
@@ -26353,7 +26355,7 @@
         <v>303610.2405165454</v>
       </c>
       <c r="P2" t="n">
-        <v>303610.2405165454</v>
+        <v>354622.4384779897</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>202824.0593593174</v>
       </c>
     </row>
     <row r="4">
@@ -26448,7 +26450,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597035</v>
@@ -26457,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>639.5264553066584</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26488,28 +26490,28 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>69171.54328360136</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26521,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369729.8252604679</v>
+        <v>-369729.8252604683</v>
       </c>
       <c r="C6" t="n">
-        <v>220238.0539540763</v>
+        <v>220238.0539540765</v>
       </c>
       <c r="D6" t="n">
-        <v>220238.0539540761</v>
+        <v>220238.0539540765</v>
       </c>
       <c r="E6" t="n">
-        <v>253865.6539540766</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="F6" t="n">
-        <v>253865.6539540763</v>
+        <v>253865.6539540762</v>
       </c>
       <c r="G6" t="n">
         <v>253865.6539540762</v>
       </c>
       <c r="H6" t="n">
+        <v>253865.6539540762</v>
+      </c>
+      <c r="I6" t="n">
+        <v>253865.6539540762</v>
+      </c>
+      <c r="J6" t="n">
+        <v>77442.43476148316</v>
+      </c>
+      <c r="K6" t="n">
+        <v>253865.6539540762</v>
+      </c>
+      <c r="L6" t="n">
+        <v>253865.6539540762</v>
+      </c>
+      <c r="M6" t="n">
         <v>253865.6539540763</v>
-      </c>
-      <c r="I6" t="n">
-        <v>253865.6539540763</v>
-      </c>
-      <c r="J6" t="n">
-        <v>77442.43476148328</v>
-      </c>
-      <c r="K6" t="n">
-        <v>253865.6539540763</v>
-      </c>
-      <c r="L6" t="n">
-        <v>253865.6539540763</v>
-      </c>
-      <c r="M6" t="n">
-        <v>253865.6539540764</v>
       </c>
       <c r="N6" t="n">
         <v>253865.6539540762</v>
@@ -26561,7 +26563,7 @@
         <v>253865.6539540763</v>
       </c>
       <c r="P6" t="n">
-        <v>253865.6539540762</v>
+        <v>81987.30937976424</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>593.4761003380636</v>
       </c>
     </row>
     <row r="4">
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26808,28 +26810,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>215.732436120977</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>250.6101663282006</v>
       </c>
     </row>
   </sheetData>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31039,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31151,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31613,16 +31615,16 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>139.432625713487</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034981</v>
@@ -31750,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76595806653282</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31856,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M15" t="n">
         <v>205.8702969983122</v>
@@ -32099,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32236,7 +32238,7 @@
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
         <v>239.6413398630669</v>
@@ -32552,7 +32554,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L21" t="n">
         <v>176.4169820478007</v>
@@ -32570,7 +32572,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
         <v>50.44659727034982</v>
@@ -32950,7 +32952,7 @@
         <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
         <v>266.6471645405367</v>
@@ -33023,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33518,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33737,7 +33739,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>115.4815392304395</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33971,7 +33973,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -34211,10 +34213,10 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>115.481539230439</v>
       </c>
       <c r="L42" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34229,7 +34231,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119869</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044137</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649102</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478007</v>
+        <v>112.9285908237934</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N45" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246924</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M46" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>323.920986939094</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,13 +35500,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M15" t="n">
         <v>529.4413268262938</v>
@@ -35738,7 +35740,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
         <v>421.5361394435301</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35972,7 +35974,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
@@ -35981,7 +35983,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36218,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,7 +36600,7 @@
         <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
         <v>485.8144648060965</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N27" t="n">
         <v>559.3197334338902</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>242.1053372686591</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37640,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686586</v>
       </c>
       <c r="L42" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37877,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530455</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898689</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713857</v>
+        <v>345.2145563473784</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L46" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N46" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
